--- a/py/map.xlsx
+++ b/py/map.xlsx
@@ -1,63 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabin\OneDrive\Documents\PRO\4ETI\majeur\PTC\Robot_Sem823\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabin\OneDrive\Documents\PRO\4ETI\majeur\PTC\Robot_Sem823\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80F8C8-0A37-43C0-96AE-CF074604A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E79851-8A54-4EC3-BE1A-4718E21AF7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="800" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="7730" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>liens</t>
-  </si>
-  <si>
-    <t>1:4,6:7</t>
-  </si>
-  <si>
-    <t>0:4,6:11,7:20,2:9</t>
-  </si>
-  <si>
-    <t>0:7,1:11,7:1</t>
-  </si>
-  <si>
-    <t>3:5,4:15,8:12</t>
-  </si>
-  <si>
-    <t>2:6,4:10,5:5</t>
-  </si>
-  <si>
-    <t>1:20,4:1,6:1,8:3</t>
-  </si>
-  <si>
-    <t>1:9,4:2,3:6</t>
-  </si>
-  <si>
-    <t>4:5,7:3,5:12</t>
-  </si>
-  <si>
-    <t>2:2,3:10,7:1,5:15,8:5</t>
+    <t>nord</t>
+  </si>
+  <si>
+    <t>sud</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>ouest</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>6:11</t>
+  </si>
+  <si>
+    <t>7:20</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>6:7</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>5:15</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>8:12</t>
+  </si>
+  <si>
+    <t>4:15</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>1:20</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>5:12</t>
   </si>
 </sst>
 </file>
@@ -67,16 +133,16 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +165,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,7 +203,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -148,7 +215,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -195,6 +262,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -230,6 +314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,97 +483,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>